--- a/BEMFSimulation/ExcelResults/LineVoltage1500.xlsx
+++ b/BEMFSimulation/ExcelResults/LineVoltage1500.xlsx
@@ -408,13 +408,13 @@
         <v>0.0001111111111111111</v>
       </c>
       <c r="B2">
-        <v>-97.54026258356915</v>
+        <v>-98.45847399041226</v>
       </c>
       <c r="C2">
-        <v>202.5206311691497</v>
+        <v>206.3708225967558</v>
       </c>
       <c r="D2">
-        <v>-104.9803685855806</v>
+        <v>-107.9123486063436</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>0.0002222222222222222</v>
       </c>
       <c r="B3">
-        <v>-87.86005347152926</v>
+        <v>-90.32154285753428</v>
       </c>
       <c r="C3">
-        <v>196.7728992789378</v>
+        <v>203.0345924808526</v>
       </c>
       <c r="D3">
-        <v>-108.9128458074085</v>
+        <v>-112.7130496233183</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.0003333333333333334</v>
       </c>
       <c r="B4">
-        <v>-67.7292424476918</v>
+        <v>-71.85506904067182</v>
       </c>
       <c r="C4">
-        <v>184.8995715085548</v>
+        <v>192.5632864477182</v>
       </c>
       <c r="D4">
-        <v>-117.170329060863</v>
+        <v>-120.7082174070463</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0004444444444444445</v>
       </c>
       <c r="B5">
-        <v>-41.2885341140587</v>
+        <v>-40.49384618931722</v>
       </c>
       <c r="C5">
-        <v>170.0881096962316</v>
+        <v>170.5072338398005</v>
       </c>
       <c r="D5">
-        <v>-128.799575582173</v>
+        <v>-130.0133876504833</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0005555555555555556</v>
       </c>
       <c r="B6">
-        <v>-19.90035994577166</v>
+        <v>-19.19141664552475</v>
       </c>
       <c r="C6">
-        <v>160.1245608028299</v>
+        <v>165.1111364391153</v>
       </c>
       <c r="D6">
-        <v>-140.2242008570582</v>
+        <v>-145.9197197935906</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0006666666666666666</v>
       </c>
       <c r="B7">
-        <v>-8.874105494400595</v>
+        <v>-9.680462272545626</v>
       </c>
       <c r="C7">
-        <v>155.0432951138453</v>
+        <v>160.3399015633486</v>
       </c>
       <c r="D7">
-        <v>-146.1691896194447</v>
+        <v>-150.659439290803</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0007777777777777777</v>
       </c>
       <c r="B8">
-        <v>-2.418712738897653</v>
+        <v>-3.62074860668929</v>
       </c>
       <c r="C8">
-        <v>155.6944103775816</v>
+        <v>158.0501361884185</v>
       </c>
       <c r="D8">
-        <v>-153.2756976386839</v>
+        <v>-154.4293875817292</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0008888888888888888</v>
       </c>
       <c r="B9">
-        <v>2.298362479752427</v>
+        <v>2.779400319054616</v>
       </c>
       <c r="C9">
-        <v>153.8026872306758</v>
+        <v>155.1505081237959</v>
       </c>
       <c r="D9">
-        <v>-156.1010497104282</v>
+        <v>-157.9299084428505</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.001</v>
       </c>
       <c r="B10">
-        <v>8.755947169366337</v>
+        <v>9.827452379050712</v>
       </c>
       <c r="C10">
-        <v>146.5691800101403</v>
+        <v>149.5207650578479</v>
       </c>
       <c r="D10">
-        <v>-155.3251271795066</v>
+        <v>-159.3482174368986</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.001111111111111111</v>
       </c>
       <c r="B11">
-        <v>19.63945700437455</v>
+        <v>19.72946951211765</v>
       </c>
       <c r="C11">
-        <v>140.7344579092206</v>
+        <v>147.771584335739</v>
       </c>
       <c r="D11">
-        <v>-160.3739149135951</v>
+        <v>-167.5010538478567</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.001222222222222222</v>
       </c>
       <c r="B12">
-        <v>41.11247374439237</v>
+        <v>42.29451182509406</v>
       </c>
       <c r="C12">
-        <v>129.2306168227031</v>
+        <v>130.5694911292339</v>
       </c>
       <c r="D12">
-        <v>-170.3430905670954</v>
+        <v>-172.8640029543279</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.001333333333333333</v>
       </c>
       <c r="B13">
-        <v>67.30447306279267</v>
+        <v>70.09244852650059</v>
       </c>
       <c r="C13">
-        <v>117.5314748907074</v>
+        <v>119.1516479709657</v>
       </c>
       <c r="D13">
-        <v>-184.8359479535001</v>
+        <v>-189.2440964974663</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.001444444444444444</v>
       </c>
       <c r="B14">
-        <v>87.64451607405856</v>
+        <v>91.38130574154188</v>
       </c>
       <c r="C14">
-        <v>108.9079360620711</v>
+        <v>112.6450378325424</v>
       </c>
       <c r="D14">
-        <v>-196.5524521361297</v>
+        <v>-204.0263435740843</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.001555555555555555</v>
       </c>
       <c r="B15">
-        <v>97.26309710599071</v>
+        <v>97.77634587168421</v>
       </c>
       <c r="C15">
-        <v>104.6623908848754</v>
+        <v>107.2821867168672</v>
       </c>
       <c r="D15">
-        <v>-201.9254879908661</v>
+        <v>-205.0585325885515</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.001666666666666667</v>
       </c>
       <c r="B16">
-        <v>103.5945749892586</v>
+        <v>104.878316894433</v>
       </c>
       <c r="C16">
-        <v>103.4291148209983</v>
+        <v>105.2944558066866</v>
       </c>
       <c r="D16">
-        <v>-207.0236898102569</v>
+        <v>-210.1727727011195</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.001777777777777778</v>
       </c>
       <c r="B17">
-        <v>104.7348946555802</v>
+        <v>107.2778297784317</v>
       </c>
       <c r="C17">
-        <v>97.57016933585754</v>
+        <v>98.54092182723366</v>
       </c>
       <c r="D17">
-        <v>-202.3050639914378</v>
+        <v>-205.8187516056653</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.001888888888888889</v>
       </c>
       <c r="B18">
-        <v>108.6095544815844</v>
+        <v>112.7157110915461</v>
       </c>
       <c r="C18">
-        <v>87.91562023459734</v>
+        <v>90.70339937968139</v>
       </c>
       <c r="D18">
-        <v>-196.5251747161818</v>
+        <v>-203.4191104712275</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.002</v>
       </c>
       <c r="B19">
-        <v>117.3476961075905</v>
+        <v>121.1944610766438</v>
       </c>
       <c r="C19">
-        <v>67.97086978329816</v>
+        <v>71.91036342331738</v>
       </c>
       <c r="D19">
-        <v>-185.3185658908887</v>
+        <v>-193.1048244999612</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.002111111111111111</v>
       </c>
       <c r="B20">
-        <v>129.1664337418767</v>
+        <v>130.4412717209213</v>
       </c>
       <c r="C20">
-        <v>41.32682507279258</v>
+        <v>40.91922610113534</v>
       </c>
       <c r="D20">
-        <v>-170.4932588146693</v>
+        <v>-171.3604978220566</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.002222222222222223</v>
       </c>
       <c r="B21">
-        <v>140.5641443577308</v>
+        <v>146.4417815220194</v>
       </c>
       <c r="C21">
-        <v>19.83590824376599</v>
+        <v>19.55883286451361</v>
       </c>
       <c r="D21">
-        <v>-160.4000526014968</v>
+        <v>-166.000614386533</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.002333333333333334</v>
       </c>
       <c r="B22">
-        <v>146.3564079286827</v>
+        <v>150.6805276044699</v>
       </c>
       <c r="C22">
-        <v>8.978045715609809</v>
+        <v>9.871533159736757</v>
       </c>
       <c r="D22">
-        <v>-155.3344536442925</v>
+        <v>-160.5520607642067</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.002444444444444445</v>
       </c>
       <c r="B23">
-        <v>153.3151163774043</v>
+        <v>154.7292695067044</v>
       </c>
       <c r="C23">
-        <v>2.491857604733859</v>
+        <v>3.298533060005276</v>
       </c>
       <c r="D23">
-        <v>-155.8069739821382</v>
+        <v>-158.0278025667096</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.002555555555555557</v>
       </c>
       <c r="B24">
-        <v>155.9989696247116</v>
+        <v>158.6721299232551</v>
       </c>
       <c r="C24">
-        <v>-2.340693009136913</v>
+        <v>-3.184232081454084</v>
       </c>
       <c r="D24">
-        <v>-153.6582766155747</v>
+        <v>-155.487897841801</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.002666666666666668</v>
       </c>
       <c r="B25">
-        <v>155.53278827785</v>
+        <v>159.7242510959047</v>
       </c>
       <c r="C25">
-        <v>-8.879449974141117</v>
+        <v>-9.788324535301086</v>
       </c>
       <c r="D25">
-        <v>-146.6533383037089</v>
+        <v>-149.9359265606036</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.002777777777777779</v>
       </c>
       <c r="B26">
-        <v>160.6960971943281</v>
+        <v>167.0686973830902</v>
       </c>
       <c r="C26">
-        <v>-19.67382016967831</v>
+        <v>-19.26222364662716</v>
       </c>
       <c r="D26">
-        <v>-141.0222770246498</v>
+        <v>-147.806473736463</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.00288888888888889</v>
       </c>
       <c r="B27">
-        <v>170.7197272743936</v>
+        <v>172.1333811473617</v>
       </c>
       <c r="C27">
-        <v>-41.09928365531065</v>
+        <v>-41.62655246853247</v>
       </c>
       <c r="D27">
-        <v>-129.620443619083</v>
+        <v>-130.5068286788292</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.003000000000000002</v>
       </c>
       <c r="B28">
-        <v>185.4847288217644</v>
+        <v>189.5348044590772</v>
       </c>
       <c r="C28">
-        <v>-67.51836390707454</v>
+        <v>-70.21430819422866</v>
       </c>
       <c r="D28">
-        <v>-117.9663649146899</v>
+        <v>-119.3204962648485</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.003111111111111113</v>
       </c>
       <c r="B29">
-        <v>196.913869456603</v>
+        <v>204.850541894882</v>
       </c>
       <c r="C29">
-        <v>-87.86799398591289</v>
+        <v>-91.75572450220257</v>
       </c>
       <c r="D29">
-        <v>-109.0458754706901</v>
+        <v>-113.0948173926795</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.003222222222222224</v>
       </c>
       <c r="B30">
-        <v>201.9242829474937</v>
+        <v>205.762777922742</v>
       </c>
       <c r="C30">
-        <v>-97.37948327554973</v>
+        <v>-98.06620961915647</v>
       </c>
       <c r="D30">
-        <v>-104.5447996719439</v>
+        <v>-107.6965683035856</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.003333333333333336</v>
       </c>
       <c r="B31">
-        <v>206.8613258380933</v>
+        <v>209.7312065855436</v>
       </c>
       <c r="C31">
-        <v>-103.5590832107525</v>
+        <v>-104.8425650045154</v>
       </c>
       <c r="D31">
-        <v>-103.3022426273408</v>
+        <v>-104.8886415810282</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.003444444444444447</v>
       </c>
       <c r="B32">
-        <v>202.1511308897673</v>
+        <v>204.5433158222676</v>
       </c>
       <c r="C32">
-        <v>-104.7381460535942</v>
+        <v>-106.9823059836558</v>
       </c>
       <c r="D32">
-        <v>-97.41298483617314</v>
+        <v>-97.56100983861184</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.003555555555555558</v>
       </c>
       <c r="B33">
-        <v>196.4134874763571</v>
+        <v>202.8422197735747</v>
       </c>
       <c r="C33">
-        <v>-108.6687064914982</v>
+        <v>-112.5033106225658</v>
       </c>
       <c r="D33">
-        <v>-87.74478098485889</v>
+        <v>-90.33890915100891</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.00366666666666667</v>
       </c>
       <c r="B34">
-        <v>185.1660754172091</v>
+        <v>193.2567906611715</v>
       </c>
       <c r="C34">
-        <v>-117.2892587055653</v>
+        <v>-121.0169410161248</v>
       </c>
       <c r="D34">
-        <v>-67.87681671164376</v>
+        <v>-72.23984964504672</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.003777777777777781</v>
       </c>
       <c r="B35">
-        <v>170.3837423526792</v>
+        <v>170.9692918089763</v>
       </c>
       <c r="C35">
-        <v>-129.0442312307285</v>
+        <v>-129.9656859385965</v>
       </c>
       <c r="D35">
-        <v>-41.33951112195075</v>
+        <v>-41.00360587037984</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.003888888888888892</v>
       </c>
       <c r="B36">
-        <v>160.3591814567251</v>
+        <v>165.2462297101713</v>
       </c>
       <c r="C36">
-        <v>-140.4399920136676</v>
+        <v>-145.9854010885136</v>
       </c>
       <c r="D36">
-        <v>-19.91918944305753</v>
+        <v>-19.26082862165764</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.004000000000000004</v>
       </c>
       <c r="B37">
-        <v>155.3950508844335</v>
+        <v>160.3459529565543</v>
       </c>
       <c r="C37">
-        <v>-146.4527873703922</v>
+        <v>-150.8183326988161</v>
       </c>
       <c r="D37">
-        <v>-8.942263514041315</v>
+        <v>-9.527620257738228</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.004111111111111115</v>
       </c>
       <c r="B38">
-        <v>155.8505485091997</v>
+        <v>158.0238252977766</v>
       </c>
       <c r="C38">
-        <v>-153.4187922451418</v>
+        <v>-154.6057331555779</v>
       </c>
       <c r="D38">
-        <v>-2.431756264057867</v>
+        <v>-3.418092142198766</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.004222222222222226</v>
       </c>
       <c r="B39">
-        <v>153.858921391816</v>
+        <v>155.5153450837907</v>
       </c>
       <c r="C39">
-        <v>-156.2638519144679</v>
+        <v>-158.3949553652095</v>
       </c>
       <c r="D39">
-        <v>2.404930522651888</v>
+        <v>2.879610281418806</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.004333333333333337</v>
       </c>
       <c r="B40">
-        <v>146.4634567948115</v>
+        <v>149.8269048850092</v>
       </c>
       <c r="C40">
-        <v>-155.3140202265198</v>
+        <v>-159.5345470024312</v>
       </c>
       <c r="D40">
-        <v>8.850563431708309</v>
+        <v>9.707642117422068</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.004444444444444449</v>
       </c>
       <c r="B41">
-        <v>140.7989339653293</v>
+        <v>148.269934909934</v>
       </c>
       <c r="C41">
-        <v>-160.4427575459229</v>
+        <v>-167.7835420448374</v>
       </c>
       <c r="D41">
-        <v>19.64382358059365</v>
+        <v>19.51360713490337</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.00455555555555556</v>
       </c>
       <c r="B42">
-        <v>129.4198004720157</v>
+        <v>130.5893406538075</v>
       </c>
       <c r="C42">
-        <v>-170.4841380429964</v>
+        <v>-172.7601089699634</v>
       </c>
       <c r="D42">
-        <v>41.06433757098073</v>
+        <v>42.17076831615589</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.004666666666666671</v>
       </c>
       <c r="B43">
-        <v>117.6827375250047</v>
+        <v>119.3568101124299</v>
       </c>
       <c r="C43">
-        <v>-185.1208325302119</v>
+        <v>-189.8262960174863</v>
       </c>
       <c r="D43">
-        <v>67.43809500520713</v>
+        <v>70.46948590505642</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.004777777777777783</v>
       </c>
       <c r="B44">
-        <v>109.0097088588325</v>
+        <v>113.0355011971979</v>
       </c>
       <c r="C44">
-        <v>-196.8932536037271</v>
+        <v>-204.7400859108089</v>
       </c>
       <c r="D44">
-        <v>87.88354474489466</v>
+        <v>91.70458471361103</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.004888888888888894</v>
       </c>
       <c r="B45">
-        <v>104.7750986132751</v>
+        <v>107.1958282679317</v>
       </c>
       <c r="C45">
-        <v>-202.3314711387043</v>
+        <v>-204.6847115894521</v>
       </c>
       <c r="D45">
-        <v>97.55637252542917</v>
+        <v>97.48888332152036</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.005000000000000005</v>
       </c>
       <c r="B46">
-        <v>103.6059986210477</v>
+        <v>105.6009767366731</v>
       </c>
       <c r="C46">
-        <v>-207.4645534748998</v>
+        <v>-211.0265052597227</v>
       </c>
       <c r="D46">
-        <v>103.8585548538521</v>
+        <v>105.4255285230497</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.005111111111111117</v>
       </c>
       <c r="B47">
-        <v>97.52706932704537</v>
+        <v>98.44767510438467</v>
       </c>
       <c r="C47">
-        <v>-202.5086314010792</v>
+        <v>-206.3642410891837</v>
       </c>
       <c r="D47">
-        <v>104.9815620740338</v>
+        <v>107.916565984799</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.005222222222222228</v>
       </c>
       <c r="B48">
-        <v>87.84307190495844</v>
+        <v>90.30959627826856</v>
       </c>
       <c r="C48">
-        <v>-196.7659671990415</v>
+        <v>-203.0344287553789</v>
       </c>
       <c r="D48">
-        <v>108.922895294083</v>
+        <v>112.7248324771104</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.005333333333333339</v>
       </c>
       <c r="B49">
-        <v>67.69023406969667</v>
+        <v>71.80847894589469</v>
       </c>
       <c r="C49">
-        <v>-184.8756123282317</v>
+        <v>-192.5264910357387</v>
       </c>
       <c r="D49">
-        <v>117.1853782585351</v>
+        <v>120.718012089844</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.005444444444444451</v>
       </c>
       <c r="B50">
-        <v>41.25315377606813</v>
+        <v>40.45663940380632</v>
       </c>
       <c r="C50">
-        <v>-170.0696438743523</v>
+        <v>-170.4907272993894</v>
       </c>
       <c r="D50">
-        <v>128.8164900982841</v>
+        <v>130.0340878955831</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.005555555555555562</v>
       </c>
       <c r="B51">
-        <v>19.87675729952895</v>
+        <v>19.16844179300617</v>
       </c>
       <c r="C51">
-        <v>-160.1147447902749</v>
+        <v>-165.1065615316554</v>
       </c>
       <c r="D51">
-        <v>140.2379874907459</v>
+        <v>145.9381197386492</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.005666666666666673</v>
       </c>
       <c r="B52">
-        <v>8.863154824048337</v>
+        <v>9.672668326126953</v>
       </c>
       <c r="C52">
-        <v>-155.0393413520551</v>
+        <v>-160.3310845540801</v>
       </c>
       <c r="D52">
-        <v>146.1761865280068</v>
+        <v>150.6584162279532</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.005777777777777784</v>
       </c>
       <c r="B53">
-        <v>2.411224432918608</v>
+        <v>3.612214961974047</v>
       </c>
       <c r="C53">
-        <v>-155.6973755089369</v>
+        <v>-158.0525234118185</v>
       </c>
       <c r="D53">
-        <v>153.2861510760183</v>
+        <v>154.4403084498444</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.005888888888888896</v>
       </c>
       <c r="B54">
-        <v>-2.305708927678424</v>
+        <v>-2.789164868933909</v>
       </c>
       <c r="C54">
-        <v>-153.7936678031522</v>
+        <v>-155.1405779664792</v>
       </c>
       <c r="D54">
-        <v>156.0993767308306</v>
+        <v>157.9297428354131</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.006000000000000007</v>
       </c>
       <c r="B55">
-        <v>-8.767054049072797</v>
+        <v>-9.839605841525241</v>
       </c>
       <c r="C55">
-        <v>-146.5615385212703</v>
+        <v>-149.5142610527765</v>
       </c>
       <c r="D55">
-        <v>155.3285925703431</v>
+        <v>159.3538668943017</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.006111111111111118</v>
       </c>
       <c r="B56">
-        <v>-19.66264397133502</v>
+        <v>-19.75097362617439</v>
       </c>
       <c r="C56">
-        <v>-140.7202663872177</v>
+        <v>-147.7617284332722</v>
       </c>
       <c r="D56">
-        <v>160.3829103585527</v>
+        <v>167.5127020594466</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.00622222222222223</v>
       </c>
       <c r="B57">
-        <v>-41.14796051592155</v>
+        <v>-42.33106834879244</v>
       </c>
       <c r="C57">
-        <v>-129.2140912347963</v>
+        <v>-130.5434443339582</v>
       </c>
       <c r="D57">
-        <v>170.3620517507178</v>
+        <v>172.8745126827506</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.006333333333333341</v>
       </c>
       <c r="B58">
-        <v>-67.34304654292269</v>
+        <v>-70.13379084745453</v>
       </c>
       <c r="C58">
-        <v>-117.5154078536651</v>
+        <v>-119.1410620445778</v>
       </c>
       <c r="D58">
-        <v>184.8584543965878</v>
+        <v>189.2748528920324</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.006444444444444452</v>
       </c>
       <c r="B59">
-        <v>-87.66289047110608</v>
+        <v>-91.39739059448219</v>
       </c>
       <c r="C59">
-        <v>-108.8990483030903</v>
+        <v>-112.6361369509481</v>
       </c>
       <c r="D59">
-        <v>196.5619387741963</v>
+        <v>204.0335275454303</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.006555555555555564</v>
       </c>
       <c r="B60">
-        <v>-97.27494941036905</v>
+        <v>-97.78644458562066</v>
       </c>
       <c r="C60">
-        <v>-104.6590461933127</v>
+        <v>-107.2772939883911</v>
       </c>
       <c r="D60">
-        <v>201.9339956036817</v>
+        <v>205.0637385740118</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.006666666666666675</v>
       </c>
       <c r="B61">
-        <v>-103.5989476424982</v>
+        <v>-104.884878935479</v>
       </c>
       <c r="C61">
-        <v>-103.4256965505737</v>
+        <v>-105.2887739602075</v>
       </c>
       <c r="D61">
-        <v>207.0246441930719</v>
+        <v>210.1736528956866</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.006777777777777786</v>
       </c>
       <c r="B62">
-        <v>-104.7371546486329</v>
+        <v>-107.2815790053871</v>
       </c>
       <c r="C62">
-        <v>-97.55812432044547</v>
+        <v>-98.53018155875814</v>
       </c>
       <c r="D62">
-        <v>202.2952789690784</v>
+        <v>205.8117605641453</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.006888888888888898</v>
       </c>
       <c r="B63">
-        <v>-108.6187721445805</v>
+        <v>-112.7291807141426</v>
       </c>
       <c r="C63">
-        <v>-87.89789489148593</v>
+        <v>-90.69197402941623</v>
       </c>
       <c r="D63">
-        <v>196.5166670360665</v>
+        <v>203.4211547435588</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.007000000000000009</v>
       </c>
       <c r="B64">
-        <v>-117.363978176231</v>
+        <v>-121.204353354285</v>
       </c>
       <c r="C64">
-        <v>-67.932283467145</v>
+        <v>-71.86333833400693</v>
       </c>
       <c r="D64">
-        <v>185.296261643376</v>
+        <v>193.0676916882919</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.00711111111111112</v>
       </c>
       <c r="B65">
-        <v>-129.1834272987439</v>
+        <v>-130.4618783276661</v>
       </c>
       <c r="C65">
-        <v>-41.29079835129841</v>
+        <v>-40.88211856747598</v>
       </c>
       <c r="D65">
-        <v>170.4742256500423</v>
+        <v>171.3439968951421</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.007222222222222231</v>
       </c>
       <c r="B66">
-        <v>-140.5771091577829</v>
+        <v>-146.4606614227846</v>
       </c>
       <c r="C66">
-        <v>-19.81253394803428</v>
+        <v>-19.53624637248421</v>
       </c>
       <c r="D66">
-        <v>160.3896431058172</v>
+        <v>165.9969077952688</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.007333333333333343</v>
       </c>
       <c r="B67">
-        <v>-146.364103509844</v>
+        <v>-150.6797965465541</v>
       </c>
       <c r="C67">
-        <v>-8.967170480871061</v>
+        <v>-9.862843599430235</v>
       </c>
       <c r="D67">
-        <v>155.3312739907151</v>
+        <v>160.5426401459843</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.007444444444444454</v>
       </c>
       <c r="B68">
-        <v>-153.324903554533</v>
+        <v>-154.7396125430375</v>
       </c>
       <c r="C68">
-        <v>-2.484202547416324</v>
+        <v>-3.289697519773959</v>
       </c>
       <c r="D68">
-        <v>155.8091061019493</v>
+        <v>158.0293100628114</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.007555555555555565</v>
       </c>
       <c r="B69">
-        <v>-155.9975052576688</v>
+        <v>-158.6719747818104</v>
       </c>
       <c r="C69">
-        <v>2.348175052041903</v>
+        <v>3.193836020425884</v>
       </c>
       <c r="D69">
-        <v>153.6493302056269</v>
+        <v>155.4781387613845</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.007666666666666677</v>
       </c>
       <c r="B70">
-        <v>-155.5362379304427</v>
+        <v>-159.7291004061219</v>
       </c>
       <c r="C70">
-        <v>8.89067947029681</v>
+        <v>9.799602322051186</v>
       </c>
       <c r="D70">
-        <v>146.6455584601458</v>
+        <v>149.9294980840707</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.007777777777777788</v>
       </c>
       <c r="B71">
-        <v>-160.7054034864156</v>
+        <v>-167.0801979972255</v>
       </c>
       <c r="C71">
-        <v>19.69679735017182</v>
+        <v>19.28325165976977</v>
       </c>
       <c r="D71">
-        <v>141.0086061362438</v>
+        <v>147.7969463374557</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.007888888888888898</v>
       </c>
       <c r="B72">
-        <v>-170.7389191564135</v>
+        <v>-172.1429312332313</v>
       </c>
       <c r="C72">
-        <v>41.13500116303311</v>
+        <v>41.66330094195799</v>
       </c>
       <c r="D72">
-        <v>129.6039179933804</v>
+        <v>130.4796302912733</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.008000000000000009</v>
       </c>
       <c r="B73">
-        <v>-185.507935405062</v>
+        <v>-189.5675481827577</v>
       </c>
       <c r="C73">
-        <v>67.55717925356478</v>
+        <v>70.25682547982692</v>
       </c>
       <c r="D73">
-        <v>117.9507561514972</v>
+        <v>119.3107227029308</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.008111111111111119</v>
       </c>
       <c r="B74">
-        <v>-196.920625411859</v>
+        <v>-204.857811299724</v>
       </c>
       <c r="C74">
-        <v>87.8855247308817</v>
+        <v>91.77175655769697</v>
       </c>
       <c r="D74">
-        <v>109.0351006809773</v>
+        <v>113.086054742027</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.00822222222222223</v>
       </c>
       <c r="B75">
-        <v>-201.9349449333102</v>
+        <v>-205.7665976728135</v>
       </c>
       <c r="C75">
-        <v>97.39229976374759</v>
+        <v>98.07573915596291</v>
       </c>
       <c r="D75">
-        <v>104.5426451695627</v>
+        <v>107.6908585168506</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.00833333333333334</v>
       </c>
       <c r="B76">
-        <v>-206.8616951132967</v>
+        <v>-209.731589787801</v>
       </c>
       <c r="C76">
-        <v>103.5632217469311</v>
+        <v>104.8491883550904</v>
       </c>
       <c r="D76">
-        <v>103.2984733663656</v>
+        <v>104.8824014327106</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.008444444444444451</v>
       </c>
       <c r="B77">
-        <v>-202.1394774544811</v>
+        <v>-204.5357515337784</v>
       </c>
       <c r="C77">
-        <v>104.7393442916217</v>
+        <v>106.9859180319781</v>
       </c>
       <c r="D77">
-        <v>97.40013316285933</v>
+        <v>97.54983350180028</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.008555555555555561</v>
       </c>
       <c r="B78">
-        <v>-196.4069750535337</v>
+        <v>-202.8440333333938</v>
       </c>
       <c r="C78">
-        <v>108.6790211015129</v>
+        <v>112.515604181683</v>
       </c>
       <c r="D78">
-        <v>87.72795395202077</v>
+        <v>90.32842915171084</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.008666666666666671</v>
       </c>
       <c r="B79">
-        <v>-185.1431060986102</v>
+        <v>-193.2219034641642</v>
       </c>
       <c r="C79">
-        <v>117.3051189948129</v>
+        <v>121.0278260075411</v>
       </c>
       <c r="D79">
-        <v>67.83798710379732</v>
+        <v>72.19407745662306</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.008777777777777782</v>
       </c>
       <c r="B80">
-        <v>-170.3651038355281</v>
+        <v>-170.9511931483332</v>
       </c>
       <c r="C80">
-        <v>129.0611262888912</v>
+        <v>129.9858670567392</v>
       </c>
       <c r="D80">
-        <v>41.30397754663696</v>
+        <v>40.96532609159411</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.008888888888888892</v>
       </c>
       <c r="B81">
-        <v>-160.3480603644403</v>
+        <v>-165.2432698389424</v>
       </c>
       <c r="C81">
-        <v>140.4526188333584</v>
+        <v>146.0054439806103</v>
       </c>
       <c r="D81">
-        <v>19.89544153108189</v>
+        <v>19.23782585833208</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.009000000000000003</v>
       </c>
       <c r="B82">
-        <v>-155.3917452253535</v>
+        <v>-160.3359220765196</v>
       </c>
       <c r="C82">
-        <v>146.4602653641924</v>
+        <v>150.8166809674048</v>
       </c>
       <c r="D82">
-        <v>8.931479861161165</v>
+        <v>9.519241109114752</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.009111111111111113</v>
       </c>
       <c r="B83">
-        <v>-155.8521550610642</v>
+        <v>-158.0263491946895</v>
       </c>
       <c r="C83">
-        <v>153.428034533393</v>
+        <v>154.6164266749834</v>
       </c>
       <c r="D83">
-        <v>2.424120527671192</v>
+        <v>3.4099225197061</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.009222222222222224</v>
       </c>
       <c r="B84">
-        <v>-153.8499344787288</v>
+        <v>-155.505220548416</v>
       </c>
       <c r="C84">
-        <v>156.2623207743218</v>
+        <v>158.3943632596724</v>
       </c>
       <c r="D84">
-        <v>-2.412386295592924</v>
+        <v>-2.889142711256369</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.009333333333333334</v>
       </c>
       <c r="B85">
-        <v>-146.4563673029828</v>
+        <v>-149.8209318720308</v>
       </c>
       <c r="C85">
-        <v>155.3179830385698</v>
+        <v>159.5404179459957</v>
       </c>
       <c r="D85">
-        <v>-8.861615735586916</v>
+        <v>-9.71948607396488</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.009444444444444445</v>
       </c>
       <c r="B86">
-        <v>-140.7859098912591</v>
+        <v>-148.2601933544071</v>
       </c>
       <c r="C86">
-        <v>160.4530814075683</v>
+        <v>167.7951199707115</v>
       </c>
       <c r="D86">
-        <v>-19.6671715163092</v>
+        <v>-19.53492661630446</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.009555555555555555</v>
       </c>
       <c r="B87">
-        <v>-129.4025091810542</v>
+        <v>-130.562902301367</v>
       </c>
       <c r="C87">
-        <v>170.5024079228671</v>
+        <v>172.7711053811429</v>
       </c>
       <c r="D87">
-        <v>-41.09989874181288</v>
+        <v>-42.20820307977587</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.009666666666666665</v>
       </c>
       <c r="B88">
-        <v>-117.6673854589417</v>
+        <v>-119.346506102519</v>
       </c>
       <c r="C88">
-        <v>185.1441448192282</v>
+        <v>189.8577888660507</v>
       </c>
       <c r="D88">
-        <v>-67.47675936028648</v>
+        <v>-70.51128276353172</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.009777777777777776</v>
       </c>
       <c r="B89">
-        <v>-108.9997636342155</v>
+        <v>-113.0259659667906</v>
       </c>
       <c r="C89">
-        <v>196.9013266582482</v>
+        <v>204.745567231284</v>
       </c>
       <c r="D89">
-        <v>-87.90156302403275</v>
+        <v>-91.71960126449336</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.009888888888888886</v>
       </c>
       <c r="B90">
-        <v>-104.7725591142316</v>
+        <v>-107.1911999805013</v>
       </c>
       <c r="C90">
-        <v>202.341325130604</v>
+        <v>204.6905333509055</v>
       </c>
       <c r="D90">
-        <v>-97.56876601637242</v>
+        <v>-97.49933337040419</v>
       </c>
     </row>
   </sheetData>

--- a/BEMFSimulation/ExcelResults/LineVoltage1500.xlsx
+++ b/BEMFSimulation/ExcelResults/LineVoltage1500.xlsx
@@ -408,13 +408,13 @@
         <v>0.0001111111111111111</v>
       </c>
       <c r="B2">
-        <v>-98.45847399041226</v>
+        <v>-99.89110985865669</v>
       </c>
       <c r="C2">
-        <v>206.3708225967558</v>
+        <v>207.5189262411768</v>
       </c>
       <c r="D2">
-        <v>-107.9123486063436</v>
+        <v>-107.6278163825201</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>0.0002222222222222222</v>
       </c>
       <c r="B3">
-        <v>-90.32154285753428</v>
+        <v>-90.12356590490302</v>
       </c>
       <c r="C3">
-        <v>203.0345924808526</v>
+        <v>201.9184403587813</v>
       </c>
       <c r="D3">
-        <v>-112.7130496233183</v>
+        <v>-111.7948744538783</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.0003333333333333334</v>
       </c>
       <c r="B4">
-        <v>-71.85506904067182</v>
+        <v>-69.51517643317314</v>
       </c>
       <c r="C4">
-        <v>192.5632864477182</v>
+        <v>189.838300271379</v>
       </c>
       <c r="D4">
-        <v>-120.7082174070463</v>
+        <v>-120.3231238382059</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0004444444444444445</v>
       </c>
       <c r="B5">
-        <v>-40.49384618931722</v>
+        <v>-42.2691158027956</v>
       </c>
       <c r="C5">
-        <v>170.5072338398005</v>
+        <v>174.2341901800145</v>
       </c>
       <c r="D5">
-        <v>-130.0133876504833</v>
+        <v>-131.9650743772189</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0005555555555555556</v>
       </c>
       <c r="B6">
-        <v>-19.19141664552475</v>
+        <v>-20.38120035572285</v>
       </c>
       <c r="C6">
-        <v>165.1111364391153</v>
+        <v>164.2350964338113</v>
       </c>
       <c r="D6">
-        <v>-145.9197197935906</v>
+        <v>-143.8538960780884</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0006666666666666666</v>
       </c>
       <c r="B7">
-        <v>-9.680462272545626</v>
+        <v>-9.113482108473669</v>
       </c>
       <c r="C7">
-        <v>160.3399015633486</v>
+        <v>158.7513666980039</v>
       </c>
       <c r="D7">
-        <v>-150.659439290803</v>
+        <v>-149.6378845895302</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0007777777777777777</v>
       </c>
       <c r="B8">
-        <v>-3.62074860668929</v>
+        <v>-2.523864707534848</v>
       </c>
       <c r="C8">
-        <v>158.0501361884185</v>
+        <v>160.1057307807985</v>
       </c>
       <c r="D8">
-        <v>-154.4293875817292</v>
+        <v>-157.5818660732637</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0008888888888888888</v>
       </c>
       <c r="B9">
-        <v>2.779400319054616</v>
+        <v>2.381772599036751</v>
       </c>
       <c r="C9">
-        <v>155.1505081237959</v>
+        <v>157.7627094786115</v>
       </c>
       <c r="D9">
-        <v>-157.9299084428505</v>
+        <v>-160.1444820776483</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.001</v>
       </c>
       <c r="B10">
-        <v>9.827452379050712</v>
+        <v>9.073892575706601</v>
       </c>
       <c r="C10">
-        <v>149.5207650578479</v>
+        <v>150.2125630623789</v>
       </c>
       <c r="D10">
-        <v>-159.3482174368986</v>
+        <v>-159.2864556380855</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.001111111111111111</v>
       </c>
       <c r="B11">
-        <v>19.72946951211765</v>
+        <v>20.17857848803921</v>
       </c>
       <c r="C11">
-        <v>147.771584335739</v>
+        <v>144.4965591586814</v>
       </c>
       <c r="D11">
-        <v>-167.5010538478567</v>
+        <v>-164.6751376467205</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.001222222222222222</v>
       </c>
       <c r="B12">
-        <v>42.29451182509406</v>
+        <v>42.22893200475822</v>
       </c>
       <c r="C12">
-        <v>130.5694911292339</v>
+        <v>132.4104821739851</v>
       </c>
       <c r="D12">
-        <v>-172.8640029543279</v>
+        <v>-174.6394141787433</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.001333333333333333</v>
       </c>
       <c r="B13">
-        <v>70.09244852650059</v>
+        <v>68.98533290887035</v>
       </c>
       <c r="C13">
-        <v>119.1516479709657</v>
+        <v>120.5116869198544</v>
       </c>
       <c r="D13">
-        <v>-189.2440964974663</v>
+        <v>-189.4970198287247</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.001444444444444444</v>
       </c>
       <c r="B14">
-        <v>91.38130574154188</v>
+        <v>89.87361044265829</v>
       </c>
       <c r="C14">
-        <v>112.6450378325424</v>
+        <v>111.6594489630239</v>
       </c>
       <c r="D14">
-        <v>-204.0263435740843</v>
+        <v>-201.5330594056822</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.001555555555555555</v>
       </c>
       <c r="B15">
-        <v>97.77634587168421</v>
+        <v>99.71499390354535</v>
       </c>
       <c r="C15">
-        <v>107.2821867168672</v>
+        <v>107.2526606696347</v>
       </c>
       <c r="D15">
-        <v>-205.0585325885515</v>
+        <v>-206.96765457318</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.001666666666666667</v>
       </c>
       <c r="B16">
-        <v>104.878316894433</v>
+        <v>106.4201687925614</v>
       </c>
       <c r="C16">
-        <v>105.2944558066866</v>
+        <v>106.2982516526284</v>
       </c>
       <c r="D16">
-        <v>-210.1727727011195</v>
+        <v>-212.7184204451898</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.001777777777777778</v>
       </c>
       <c r="B17">
-        <v>107.2778297784317</v>
+        <v>107.3047217953241</v>
       </c>
       <c r="C17">
-        <v>98.54092182723366</v>
+        <v>99.85059055966873</v>
       </c>
       <c r="D17">
-        <v>-205.8187516056653</v>
+        <v>-207.1553123549928</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.001888888888888889</v>
       </c>
       <c r="B18">
-        <v>112.7157110915461</v>
+        <v>111.4837812826438</v>
       </c>
       <c r="C18">
-        <v>90.70339937968139</v>
+        <v>90.18562185048603</v>
       </c>
       <c r="D18">
-        <v>-203.4191104712275</v>
+        <v>-201.6694031331298</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.002</v>
       </c>
       <c r="B19">
-        <v>121.1944610766438</v>
+        <v>120.5134316325063</v>
       </c>
       <c r="C19">
-        <v>71.91036342331738</v>
+        <v>69.78983892378825</v>
       </c>
       <c r="D19">
-        <v>-193.1048244999612</v>
+        <v>-190.3032705562945</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.002111111111111111</v>
       </c>
       <c r="B20">
-        <v>130.4412717209213</v>
+        <v>132.3974533869205</v>
       </c>
       <c r="C20">
-        <v>40.91922610113534</v>
+        <v>42.30677829921134</v>
       </c>
       <c r="D20">
-        <v>-171.3604978220566</v>
+        <v>-174.7042316861319</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.002222222222222223</v>
       </c>
       <c r="B21">
-        <v>146.4417815220194</v>
+        <v>144.1722525713241</v>
       </c>
       <c r="C21">
-        <v>19.55883286451361</v>
+        <v>20.33104037732741</v>
       </c>
       <c r="D21">
-        <v>-166.000614386533</v>
+        <v>-164.5032929486515</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.002333333333333334</v>
       </c>
       <c r="B22">
-        <v>150.6805276044699</v>
+        <v>149.8137510557829</v>
       </c>
       <c r="C22">
-        <v>9.871533159736757</v>
+        <v>9.215302513949645</v>
       </c>
       <c r="D22">
-        <v>-160.5520607642067</v>
+        <v>-159.0290535697326</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.002444444444444445</v>
       </c>
       <c r="B23">
-        <v>154.7292695067044</v>
+        <v>157.6286737529895</v>
       </c>
       <c r="C23">
-        <v>3.298533060005276</v>
+        <v>2.549490438310748</v>
       </c>
       <c r="D23">
-        <v>-158.0278025667096</v>
+        <v>-160.1781641913003</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.002555555555555557</v>
       </c>
       <c r="B24">
-        <v>158.6721299232551</v>
+        <v>160.0396319224544</v>
       </c>
       <c r="C24">
-        <v>-3.184232081454084</v>
+        <v>-2.470507737801711</v>
       </c>
       <c r="D24">
-        <v>-155.487897841801</v>
+        <v>-157.5691241846527</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.002666666666666668</v>
       </c>
       <c r="B25">
-        <v>159.7242510959047</v>
+        <v>159.484560171853</v>
       </c>
       <c r="C25">
-        <v>-9.788324535301086</v>
+        <v>-9.214247796597022</v>
       </c>
       <c r="D25">
-        <v>-149.9359265606036</v>
+        <v>-150.270312375256</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.002777777777777779</v>
       </c>
       <c r="B26">
-        <v>167.0686973830902</v>
+        <v>164.9673607298584</v>
       </c>
       <c r="C26">
-        <v>-19.26222364662716</v>
+        <v>-20.20333272635295</v>
       </c>
       <c r="D26">
-        <v>-147.806473736463</v>
+        <v>-144.7640280035054</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.00288888888888889</v>
       </c>
       <c r="B27">
-        <v>172.1333811473617</v>
+        <v>175.0367220211209</v>
       </c>
       <c r="C27">
-        <v>-41.62655246853247</v>
+        <v>-42.20465835757844</v>
       </c>
       <c r="D27">
-        <v>-130.5068286788292</v>
+        <v>-132.8320636635424</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.003000000000000002</v>
       </c>
       <c r="B28">
-        <v>189.5348044590772</v>
+        <v>190.1369152710896</v>
       </c>
       <c r="C28">
-        <v>-70.21430819422866</v>
+        <v>-69.21140506532211</v>
       </c>
       <c r="D28">
-        <v>-119.3204962648485</v>
+        <v>-120.9255102057675</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.003111111111111113</v>
       </c>
       <c r="B29">
-        <v>204.850541894882</v>
+        <v>201.8679890377445</v>
       </c>
       <c r="C29">
-        <v>-91.75572450220257</v>
+        <v>-90.10524743792169</v>
       </c>
       <c r="D29">
-        <v>-113.0948173926795</v>
+        <v>-111.7627415998228</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.003222222222222224</v>
       </c>
       <c r="B30">
-        <v>205.762777922742</v>
+        <v>207.0738300991746</v>
       </c>
       <c r="C30">
-        <v>-98.06620961915647</v>
+        <v>-99.85738673897099</v>
       </c>
       <c r="D30">
-        <v>-107.6965683035856</v>
+        <v>-107.2164433602036</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.003333333333333336</v>
       </c>
       <c r="B31">
-        <v>209.7312065855436</v>
+        <v>212.5721929924399</v>
       </c>
       <c r="C31">
-        <v>-104.8425650045154</v>
+        <v>-106.3789514834196</v>
       </c>
       <c r="D31">
-        <v>-104.8886415810282</v>
+        <v>-106.1932415090203</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.003444444444444447</v>
       </c>
       <c r="B32">
-        <v>204.5433158222676</v>
+        <v>206.9576247026003</v>
       </c>
       <c r="C32">
-        <v>-106.9823059836558</v>
+        <v>-107.2896736020065</v>
       </c>
       <c r="D32">
-        <v>-97.56100983861184</v>
+        <v>-99.66795110059383</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.003555555555555558</v>
       </c>
       <c r="B33">
-        <v>202.8422197735747</v>
+        <v>201.4698241307864</v>
       </c>
       <c r="C33">
-        <v>-112.5033106225658</v>
+        <v>-111.525364817963</v>
       </c>
       <c r="D33">
-        <v>-90.33890915100891</v>
+        <v>-89.9444593128234</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.00366666666666667</v>
       </c>
       <c r="B34">
-        <v>193.2567906611715</v>
+        <v>190.0955036158901</v>
       </c>
       <c r="C34">
-        <v>-121.0169410161248</v>
+        <v>-120.430582305498</v>
       </c>
       <c r="D34">
-        <v>-72.23984964504672</v>
+        <v>-69.66492131039205</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.003777777777777781</v>
       </c>
       <c r="B35">
-        <v>170.9692918089763</v>
+        <v>174.5997463633527</v>
       </c>
       <c r="C35">
-        <v>-129.9656859385965</v>
+        <v>-132.2400523061041</v>
       </c>
       <c r="D35">
-        <v>-41.00360587037984</v>
+        <v>-42.35969405724856</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.003888888888888892</v>
       </c>
       <c r="B36">
-        <v>165.2462297101713</v>
+        <v>164.4187243904743</v>
       </c>
       <c r="C36">
-        <v>-145.9854010885136</v>
+        <v>-144.0113098286029</v>
       </c>
       <c r="D36">
-        <v>-19.26082862165764</v>
+        <v>-20.40741456187135</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.004000000000000004</v>
       </c>
       <c r="B37">
-        <v>160.3459529565543</v>
+        <v>159.0541027751833</v>
       </c>
       <c r="C37">
-        <v>-150.8183326988161</v>
+        <v>-149.8941818895973</v>
       </c>
       <c r="D37">
-        <v>-9.527620257738228</v>
+        <v>-9.159920885585962</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.004111111111111115</v>
       </c>
       <c r="B38">
-        <v>158.0238252977766</v>
+        <v>160.1744271884711</v>
       </c>
       <c r="C38">
-        <v>-154.6057331555779</v>
+        <v>-157.6877426412599</v>
       </c>
       <c r="D38">
-        <v>-3.418092142198766</v>
+        <v>-2.486684547211226</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.004222222222222226</v>
       </c>
       <c r="B39">
-        <v>155.5153450837907</v>
+        <v>157.7970856071658</v>
       </c>
       <c r="C39">
-        <v>-158.3949553652095</v>
+        <v>-160.2586113128561</v>
       </c>
       <c r="D39">
-        <v>2.879610281418806</v>
+        <v>2.461525705690292</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.004333333333333337</v>
       </c>
       <c r="B40">
-        <v>149.8269048850092</v>
+        <v>150.0373081829923</v>
       </c>
       <c r="C40">
-        <v>-159.5345470024312</v>
+        <v>-159.1696496706108</v>
       </c>
       <c r="D40">
-        <v>9.707642117422068</v>
+        <v>9.13234148761849</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.004444444444444449</v>
       </c>
       <c r="B41">
-        <v>148.269934909934</v>
+        <v>144.525359875064</v>
       </c>
       <c r="C41">
-        <v>-167.7835420448374</v>
+        <v>-164.7042518858133</v>
       </c>
       <c r="D41">
-        <v>19.51360713490337</v>
+        <v>20.17889201074929</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.00455555555555556</v>
       </c>
       <c r="B42">
-        <v>130.5893406538075</v>
+        <v>132.6111597288758</v>
       </c>
       <c r="C42">
-        <v>-172.7601089699634</v>
+        <v>-174.8447308071493</v>
       </c>
       <c r="D42">
-        <v>42.17076831615589</v>
+        <v>42.23357107827356</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.004666666666666671</v>
       </c>
       <c r="B43">
-        <v>119.3568101124299</v>
+        <v>120.6593096139026</v>
       </c>
       <c r="C43">
-        <v>-189.8262960174863</v>
+        <v>-189.7901130683557</v>
       </c>
       <c r="D43">
-        <v>70.46948590505642</v>
+        <v>69.13080345445314</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.004777777777777783</v>
       </c>
       <c r="B44">
-        <v>113.0355011971979</v>
+        <v>111.7038836598694</v>
       </c>
       <c r="C44">
-        <v>-204.7400859108089</v>
+        <v>-201.7763354966153</v>
       </c>
       <c r="D44">
-        <v>91.70458471361103</v>
+        <v>90.0724518367459</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.004888888888888894</v>
       </c>
       <c r="B45">
-        <v>107.1958282679317</v>
+        <v>107.3712466943754</v>
       </c>
       <c r="C45">
-        <v>-204.6847115894521</v>
+        <v>-207.3837985256388</v>
       </c>
       <c r="D45">
-        <v>97.48888332152036</v>
+        <v>100.0125518312634</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.005000000000000005</v>
       </c>
       <c r="B46">
-        <v>105.6009767366731</v>
+        <v>106.503634233618</v>
       </c>
       <c r="C46">
-        <v>-211.0265052597227</v>
+        <v>-213.2249871934859</v>
       </c>
       <c r="D46">
-        <v>105.4255285230497</v>
+        <v>106.7213529598679</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.005111111111111117</v>
       </c>
       <c r="B47">
-        <v>98.44767510438467</v>
+        <v>99.87821450722856</v>
       </c>
       <c r="C47">
-        <v>-206.3642410891837</v>
+        <v>-207.5082249411563</v>
       </c>
       <c r="D47">
-        <v>107.916565984799</v>
+        <v>107.6300104339278</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.005222222222222228</v>
       </c>
       <c r="B48">
-        <v>90.30959627826856</v>
+        <v>90.10577391242538</v>
       </c>
       <c r="C48">
-        <v>-203.0344287553789</v>
+        <v>-201.9100143906613</v>
       </c>
       <c r="D48">
-        <v>112.7248324771104</v>
+        <v>111.8042404782359</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.005333333333333339</v>
       </c>
       <c r="B49">
-        <v>71.80847894589469</v>
+        <v>69.47507021118571</v>
       </c>
       <c r="C49">
-        <v>-192.5264910357387</v>
+        <v>-189.8138620766449</v>
       </c>
       <c r="D49">
-        <v>120.718012089844</v>
+        <v>120.3387918654592</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.005444444444444451</v>
       </c>
       <c r="B50">
-        <v>40.45663940380632</v>
+        <v>42.23308680814018</v>
       </c>
       <c r="C50">
-        <v>-170.4907272993894</v>
+        <v>-174.2156837553691</v>
       </c>
       <c r="D50">
-        <v>130.0340878955831</v>
+        <v>131.9825969472289</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.005555555555555562</v>
       </c>
       <c r="B51">
-        <v>19.16844179300617</v>
+        <v>20.35676451664816</v>
       </c>
       <c r="C51">
-        <v>-165.1065615316554</v>
+        <v>-164.2238003825374</v>
       </c>
       <c r="D51">
-        <v>145.9381197386492</v>
+        <v>143.8670358658893</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.005666666666666673</v>
       </c>
       <c r="B52">
-        <v>9.672668326126953</v>
+        <v>9.102488128999163</v>
       </c>
       <c r="C52">
-        <v>-160.3310845540801</v>
+        <v>-158.7492069094872</v>
       </c>
       <c r="D52">
-        <v>150.6584162279532</v>
+        <v>149.6467187804881</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.005777777777777784</v>
       </c>
       <c r="B53">
-        <v>3.612214961974047</v>
+        <v>2.516296209432028</v>
       </c>
       <c r="C53">
-        <v>-158.0525234118185</v>
+        <v>-160.108940108423</v>
       </c>
       <c r="D53">
-        <v>154.4403084498444</v>
+        <v>157.592643898991</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.005888888888888896</v>
       </c>
       <c r="B54">
-        <v>-2.789164868933909</v>
+        <v>-2.389656472480823</v>
       </c>
       <c r="C54">
-        <v>-155.1405779664792</v>
+        <v>-157.7518194652704</v>
       </c>
       <c r="D54">
-        <v>157.9297428354131</v>
+        <v>160.1414759377512</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.006000000000000007</v>
       </c>
       <c r="B55">
-        <v>-9.839605841525241</v>
+        <v>-9.085206959973597</v>
       </c>
       <c r="C55">
-        <v>-149.5142610527765</v>
+        <v>-150.2050051267317</v>
       </c>
       <c r="D55">
-        <v>159.3538668943017</v>
+        <v>159.2902120867053</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.006111111111111118</v>
       </c>
       <c r="B56">
-        <v>-19.75097362617439</v>
+        <v>-20.2024371817703</v>
       </c>
       <c r="C56">
-        <v>-147.7617284332722</v>
+        <v>-144.4823085305803</v>
       </c>
       <c r="D56">
-        <v>167.5127020594466</v>
+        <v>164.6847457123506</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.00622222222222223</v>
       </c>
       <c r="B57">
-        <v>-42.33106834879244</v>
+        <v>-42.26533940437163</v>
       </c>
       <c r="C57">
-        <v>-130.5434443339582</v>
+        <v>-132.3931161011951</v>
       </c>
       <c r="D57">
-        <v>172.8745126827506</v>
+        <v>174.6584555055668</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.006333333333333341</v>
       </c>
       <c r="B58">
-        <v>-70.13379084745453</v>
+        <v>-69.02463181339843</v>
       </c>
       <c r="C58">
-        <v>-119.1410620445778</v>
+        <v>-120.4957708119698</v>
       </c>
       <c r="D58">
-        <v>189.2748528920324</v>
+        <v>189.5204026253682</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.006444444444444452</v>
       </c>
       <c r="B59">
-        <v>-91.39739059448219</v>
+        <v>-89.8921402913503</v>
       </c>
       <c r="C59">
-        <v>-112.6361369509481</v>
+        <v>-111.649613637247</v>
       </c>
       <c r="D59">
-        <v>204.0335275454303</v>
+        <v>201.5417539285973</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.006555555555555564</v>
       </c>
       <c r="B60">
-        <v>-97.78644458562066</v>
+        <v>-99.72844599012116</v>
       </c>
       <c r="C60">
-        <v>-107.2772939883911</v>
+        <v>-107.250492119469</v>
       </c>
       <c r="D60">
-        <v>205.0637385740118</v>
+        <v>206.9789381095902</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.006666666666666675</v>
       </c>
       <c r="B61">
-        <v>-104.884878935479</v>
+        <v>-106.4241701728908</v>
       </c>
       <c r="C61">
-        <v>-105.2887739602075</v>
+        <v>-106.2944355391296</v>
       </c>
       <c r="D61">
-        <v>210.1736528956866</v>
+        <v>212.7186057120204</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.006777777777777786</v>
       </c>
       <c r="B62">
-        <v>-107.2815790053871</v>
+        <v>-107.3059176280493</v>
       </c>
       <c r="C62">
-        <v>-98.53018155875814</v>
+        <v>-99.83735891511976</v>
       </c>
       <c r="D62">
-        <v>205.8117605641453</v>
+        <v>207.1432765431691</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.006888888888888898</v>
       </c>
       <c r="B63">
-        <v>-112.7291807141426</v>
+        <v>-111.4940697212935</v>
       </c>
       <c r="C63">
-        <v>-90.69197402941623</v>
+        <v>-90.16809041933267</v>
       </c>
       <c r="D63">
-        <v>203.4211547435588</v>
+        <v>201.6621601406261</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.007000000000000009</v>
       </c>
       <c r="B64">
-        <v>-121.204353354285</v>
+        <v>-120.529791568521</v>
       </c>
       <c r="C64">
-        <v>-71.86333833400693</v>
+        <v>-69.7497171362503</v>
       </c>
       <c r="D64">
-        <v>193.0676916882919</v>
+        <v>190.2795087047713</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.00711111111111112</v>
       </c>
       <c r="B65">
-        <v>-130.4618783276661</v>
+        <v>-132.4146750416955</v>
       </c>
       <c r="C65">
-        <v>-40.88211856747598</v>
+        <v>-42.27022403240451</v>
       </c>
       <c r="D65">
-        <v>171.3439968951421</v>
+        <v>174.6848990741</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.007222222222222231</v>
       </c>
       <c r="B66">
-        <v>-146.4606614227846</v>
+        <v>-144.1868679201185</v>
       </c>
       <c r="C66">
-        <v>-19.53624637248421</v>
+        <v>-20.30711806969926</v>
       </c>
       <c r="D66">
-        <v>165.9969077952688</v>
+        <v>164.4939859898178</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.007333333333333343</v>
       </c>
       <c r="B67">
-        <v>-150.6797965465541</v>
+        <v>-149.8200239225484</v>
       </c>
       <c r="C67">
-        <v>-9.862843599430235</v>
+        <v>-9.204058173384531</v>
       </c>
       <c r="D67">
-        <v>160.5426401459843</v>
+        <v>159.0240820959329</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.007444444444444454</v>
       </c>
       <c r="B68">
-        <v>-154.7396125430375</v>
+        <v>-157.6396808844594</v>
       </c>
       <c r="C68">
-        <v>-3.289697519773959</v>
+        <v>-2.541873027372489</v>
       </c>
       <c r="D68">
-        <v>158.0293100628114</v>
+        <v>160.1815539118319</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.007555555555555565</v>
       </c>
       <c r="B69">
-        <v>-158.6719747818104</v>
+        <v>-160.0368184060804</v>
       </c>
       <c r="C69">
-        <v>3.193836020425884</v>
+        <v>2.478637025675397</v>
       </c>
       <c r="D69">
-        <v>155.4781387613845</v>
+        <v>157.558181380405</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.007666666666666677</v>
       </c>
       <c r="B70">
-        <v>-159.7291004061219</v>
+        <v>-159.48916826172</v>
       </c>
       <c r="C70">
-        <v>9.799602322051186</v>
+        <v>9.225473520821161</v>
       </c>
       <c r="D70">
-        <v>149.9294980840707</v>
+        <v>150.2636947408988</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.007777777777777788</v>
       </c>
       <c r="B71">
-        <v>-167.0801979972255</v>
+        <v>-164.9777536924381</v>
       </c>
       <c r="C71">
-        <v>19.28325165976977</v>
+        <v>20.22710128566307</v>
       </c>
       <c r="D71">
-        <v>147.7969463374557</v>
+        <v>144.7506524067751</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.007888888888888898</v>
       </c>
       <c r="B72">
-        <v>-172.1429312332313</v>
+        <v>-175.0554215026935</v>
       </c>
       <c r="C72">
-        <v>41.66330094195799</v>
+        <v>42.24107907455096</v>
       </c>
       <c r="D72">
-        <v>130.4796302912733</v>
+        <v>132.8143424281425</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.008000000000000009</v>
       </c>
       <c r="B73">
-        <v>-189.5675481827577</v>
+        <v>-190.1605288926828</v>
       </c>
       <c r="C73">
-        <v>70.25682547982692</v>
+        <v>69.2512019084876</v>
       </c>
       <c r="D73">
-        <v>119.3107227029308</v>
+        <v>120.9093269841952</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.008111111111111119</v>
       </c>
       <c r="B74">
-        <v>-204.857811299724</v>
+        <v>-201.8762799118424</v>
       </c>
       <c r="C74">
-        <v>91.77175655769697</v>
+        <v>90.12360679857167</v>
       </c>
       <c r="D74">
-        <v>113.086054742027</v>
+        <v>111.7526731132707</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.00822222222222223</v>
       </c>
       <c r="B75">
-        <v>-205.7665976728135</v>
+        <v>-207.0837337640135</v>
       </c>
       <c r="C75">
-        <v>98.07573915596291</v>
+        <v>99.87009693387776</v>
       </c>
       <c r="D75">
-        <v>107.6908585168506</v>
+        <v>107.2136368301358</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.00833333333333334</v>
       </c>
       <c r="B76">
-        <v>-209.731589787801</v>
+        <v>-212.5729153946767</v>
       </c>
       <c r="C76">
-        <v>104.8491883550904</v>
+        <v>106.3833466751887</v>
       </c>
       <c r="D76">
-        <v>104.8824014327106</v>
+        <v>106.1895687194881</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.008444444444444451</v>
       </c>
       <c r="B77">
-        <v>-204.5357515337784</v>
+        <v>-206.9468329413598</v>
       </c>
       <c r="C77">
-        <v>106.9859180319781</v>
+        <v>107.2918643462267</v>
       </c>
       <c r="D77">
-        <v>97.54983350180028</v>
+        <v>99.65496859513314</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.008555555555555561</v>
       </c>
       <c r="B78">
-        <v>-202.8440333333938</v>
+        <v>-201.4620441918902</v>
       </c>
       <c r="C78">
-        <v>112.515604181683</v>
+        <v>111.5351694048152</v>
       </c>
       <c r="D78">
-        <v>90.32842915171084</v>
+        <v>89.92687478707506</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.008666666666666671</v>
       </c>
       <c r="B79">
-        <v>-193.2219034641642</v>
+        <v>-190.071163638128</v>
       </c>
       <c r="C79">
-        <v>121.0278260075411</v>
+        <v>120.446278791275</v>
       </c>
       <c r="D79">
-        <v>72.19407745662306</v>
+        <v>69.62488484685301</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.008777777777777782</v>
       </c>
       <c r="B80">
-        <v>-170.9511931483332</v>
+        <v>-174.5796690475115</v>
       </c>
       <c r="C80">
-        <v>129.9858670567392</v>
+        <v>132.2564233187665</v>
       </c>
       <c r="D80">
-        <v>40.96532609159411</v>
+        <v>42.32324572874508</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.008888888888888892</v>
       </c>
       <c r="B81">
-        <v>-165.2432698389424</v>
+        <v>-164.4091394799502</v>
       </c>
       <c r="C81">
-        <v>146.0054439806103</v>
+        <v>144.0259778111703</v>
       </c>
       <c r="D81">
-        <v>19.23782585833208</v>
+        <v>20.38316166877982</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.009000000000000003</v>
       </c>
       <c r="B82">
-        <v>-160.3359220765196</v>
+        <v>-159.0505422169086</v>
       </c>
       <c r="C82">
-        <v>150.8166809674048</v>
+        <v>149.901913042429</v>
       </c>
       <c r="D82">
-        <v>9.519241109114752</v>
+        <v>9.148629174479602</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.009111111111111113</v>
       </c>
       <c r="B83">
-        <v>-158.0263491946895</v>
+        <v>-160.1782583562914</v>
       </c>
       <c r="C83">
-        <v>154.6164266749834</v>
+        <v>157.6991924016262</v>
       </c>
       <c r="D83">
-        <v>3.4099225197061</v>
+        <v>2.479065954665224</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.009222222222222224</v>
       </c>
       <c r="B84">
-        <v>-155.505220548416</v>
+        <v>-157.7850856582514</v>
       </c>
       <c r="C84">
-        <v>158.3943632596724</v>
+        <v>160.2545311638663</v>
       </c>
       <c r="D84">
-        <v>-2.889142711256369</v>
+        <v>-2.469445505614914</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.009333333333333334</v>
       </c>
       <c r="B85">
-        <v>-149.8209318720308</v>
+        <v>-150.0295157843823</v>
       </c>
       <c r="C85">
-        <v>159.5404179459957</v>
+        <v>159.172904459885</v>
       </c>
       <c r="D85">
-        <v>-9.71948607396488</v>
+        <v>-9.143388675502756</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.009444444444444445</v>
       </c>
       <c r="B86">
-        <v>-148.2601933544071</v>
+        <v>-144.512540524611</v>
       </c>
       <c r="C86">
-        <v>167.7951199707115</v>
+        <v>164.7152584678691</v>
       </c>
       <c r="D86">
-        <v>-19.53492661630446</v>
+        <v>-20.20271794325809</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.009555555555555555</v>
       </c>
       <c r="B87">
-        <v>-130.562902301367</v>
+        <v>-132.5935884563161</v>
       </c>
       <c r="C87">
-        <v>172.7711053811429</v>
+        <v>174.8639983554008</v>
       </c>
       <c r="D87">
-        <v>-42.20820307977587</v>
+        <v>-42.2704098990847</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.009666666666666665</v>
       </c>
       <c r="B88">
-        <v>-119.346506102519</v>
+        <v>-120.643541614125</v>
       </c>
       <c r="C88">
-        <v>189.8577888660507</v>
+        <v>189.8138194642847</v>
       </c>
       <c r="D88">
-        <v>-70.51128276353172</v>
+        <v>-69.17027785015968</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.009777777777777776</v>
       </c>
       <c r="B89">
-        <v>-113.0259659667906</v>
+        <v>-111.6934442749597</v>
       </c>
       <c r="C89">
-        <v>204.745567231284</v>
+        <v>201.7839365288708</v>
       </c>
       <c r="D89">
-        <v>-91.71960126449336</v>
+        <v>-90.09049225391102</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.009888888888888886</v>
       </c>
       <c r="B90">
-        <v>-107.1911999805013</v>
+        <v>-107.3695887235446</v>
       </c>
       <c r="C90">
-        <v>204.6905333509055</v>
+        <v>207.395744385291</v>
       </c>
       <c r="D90">
-        <v>-97.49933337040419</v>
+        <v>-100.0261556617465</v>
       </c>
     </row>
   </sheetData>
